--- a/ISO 27001-27701/iso 27001-27701 compliance checklist.xlsx
+++ b/ISO 27001-27701/iso 27001-27701 compliance checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="45" windowWidth="28695" windowHeight="12795"/>
+    <workbookView xWindow="75" yWindow="45" windowWidth="28695" windowHeight="12795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Usage" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="647">
   <si>
     <t>Reference</t>
   </si>
@@ -2162,12 +2162,42 @@
   <si>
     <t>Conditions for collection and processing</t>
   </si>
+  <si>
+    <t>What To Expect During An ISO 27701 Audit </t>
+  </si>
+  <si>
+    <t>1. Your organisation’s policies, procedures, and processes for managing personal data</t>
+  </si>
+  <si>
+    <t>2.  Evaluate your privacy risks and appropriate controls to assess if your controls are effective in mitigating the identified risks.</t>
+  </si>
+  <si>
+    <t>3. Assess your privacy incident management. Is your ability to detect, report, investigate, and respond to privacy incidents sufficient</t>
+  </si>
+  <si>
+    <t>4. Examine your third-party privacy management to ensure adequate controls are in place to manage third-party risks</t>
+  </si>
+  <si>
+    <t>5. Check your privacy training program adequately educates your staff on privacy matters</t>
+  </si>
+  <si>
+    <t>6. Review your organisation’s performance metrics to confirm if they are meeting the privacy objectives.</t>
+  </si>
+  <si>
+    <t>Focus Area</t>
+  </si>
+  <si>
+    <t>Handler</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2281,6 +2311,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF494854"/>
+      <name val="Br_candorlight"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF494854"/>
+      <name val="Br_candorbold"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2326,7 +2367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -2808,6 +2849,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2816,7 +2894,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3012,6 +3090,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3021,6 +3126,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3120,56 +3276,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3179,28 +3296,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="69">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3212,475 +3312,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3709,12 +3346,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3726,9 +3360,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4159,8 +3796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4171,36 +3808,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="71" t="s">
         <v>472</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
     </row>
     <row r="2" spans="1:3" ht="33.75" customHeight="1" thickTop="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="72" t="s">
         <v>626</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="1:3" ht="33.950000000000003" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4"/>
       <c r="B4"/>
     </row>
     <row r="5" spans="1:3" ht="18" thickBot="1">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="73" t="s">
         <v>473</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="41" t="s">
@@ -4318,10 +3955,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K21"/>
+  <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4339,330 +3976,421 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="82" t="s">
         <v>630</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="112" t="s">
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="I2" s="88" t="s">
         <v>631</v>
       </c>
-      <c r="K2" s="113"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
     </row>
     <row r="3" spans="2:11" ht="21" customHeight="1">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="62" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="62" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="63" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="21" customHeight="1">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D4" s="65">
         <f>AVERAGE('ISO 27001 Audit Checklist'!H6:H7)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="103" t="s">
+      <c r="I4" s="64" t="s">
         <v>55</v>
       </c>
       <c r="J4" s="55" t="s">
         <v>632</v>
       </c>
-      <c r="K4" s="104">
+      <c r="K4" s="65">
         <f>AVERAGE('ISO 27701 Audit Checklist'!H5:H12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="21" customHeight="1">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="64" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="65">
         <f>AVERAGE('ISO 27001 Audit Checklist'!H10:H14,'ISO 27001 Audit Checklist'!H16:H17)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="64" t="s">
         <v>66</v>
       </c>
       <c r="J5" s="55" t="s">
         <v>633</v>
       </c>
-      <c r="K5" s="104">
+      <c r="K5" s="65">
         <f>AVERAGE('ISO 27701 Audit Checklist'!H14:H23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="21" customHeight="1">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="66" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="65">
         <f>AVERAGE('ISO 27001 Audit Checklist'!H20:H21,'ISO 27001 Audit Checklist'!H23:H25,'ISO 27001 Audit Checklist'!H27)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="103" t="s">
+      <c r="I6" s="64" t="s">
         <v>506</v>
       </c>
       <c r="J6" s="55" t="s">
         <v>634</v>
       </c>
-      <c r="K6" s="104">
+      <c r="K6" s="65">
         <f>AVERAGE('ISO 27701 Audit Checklist'!H25:H33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="21" customHeight="1">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="64" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="104">
+      <c r="D7" s="65">
         <f>AVERAGE('ISO 27001 Audit Checklist'!H30:H33,'ISO 27001 Audit Checklist'!H35:H37,'ISO 27001 Audit Checklist'!H39:H41)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="103" t="s">
+      <c r="I7" s="64" t="s">
         <v>519</v>
       </c>
       <c r="J7" s="55" t="s">
         <v>635</v>
       </c>
-      <c r="K7" s="104">
+      <c r="K7" s="65">
         <f>AVERAGE('ISO 27701 Audit Checklist'!H35:H38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="21" customHeight="1">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="64" t="s">
         <v>109</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="65">
         <f>AVERAGE('ISO 27001 Audit Checklist'!H44:H45,'ISO 27001 Audit Checklist'!H47:H52,'ISO 27001 Audit Checklist'!H54,'ISO 27001 Audit Checklist'!H56:H60)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="64" t="s">
         <v>525</v>
       </c>
       <c r="J8" s="55" t="s">
         <v>636</v>
       </c>
-      <c r="K8" s="104">
+      <c r="K8" s="65">
         <f>AVERAGE('ISO 27701 Audit Checklist'!H40:H45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="21" customHeight="1">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="64" t="s">
         <v>161</v>
       </c>
       <c r="C9" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="65">
         <f>AVERAGE('ISO 27001 Audit Checklist'!H63:H64)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="I9" s="64" t="s">
         <v>575</v>
       </c>
       <c r="J9" s="55" t="s">
         <v>603</v>
       </c>
-      <c r="K9" s="104">
+      <c r="K9" s="65">
         <f>AVERAGE('ISO 27701 Audit Checklist'!H47)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="21" customHeight="1">
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="64" t="s">
         <v>171</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="65">
         <f>AVERAGE('ISO 27001 Audit Checklist'!H67:H72,'ISO 27001 Audit Checklist'!H74:H82)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="64" t="s">
         <v>577</v>
       </c>
       <c r="J10" s="56" t="s">
         <v>634</v>
       </c>
-      <c r="K10" s="104">
+      <c r="K10" s="65">
         <f>AVERAGE('ISO 27701 Audit Checklist'!H49:H51)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="21" customHeight="1">
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="64" t="s">
         <v>222</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="65">
         <f>AVERAGE('ISO 27001 Audit Checklist'!H85:H88,'ISO 27001 Audit Checklist'!H90,'ISO 27001 Audit Checklist'!H92,'ISO 27001 Audit Checklist'!H94:H97,'ISO 27001 Audit Checklist'!H99,'ISO 27001 Audit Checklist'!H101:H102,'ISO 27001 Audit Checklist'!H104)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="103" t="s">
+      <c r="I11" s="64" t="s">
         <v>581</v>
       </c>
       <c r="J11" s="56" t="s">
         <v>635</v>
       </c>
-      <c r="K11" s="104">
+      <c r="K11" s="65">
         <f>AVERAGE('ISO 27701 Audit Checklist'!H53:H60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="21" customHeight="1">
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="64" t="s">
         <v>280</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>281</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="65">
         <f>AVERAGE('ISO 27001 Audit Checklist'!H107:H109,'ISO 27001 Audit Checklist'!H111:H114)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="114"/>
+      <c r="I12" s="70"/>
       <c r="J12" s="61"/>
-      <c r="K12" s="107"/>
+      <c r="K12" s="68"/>
     </row>
     <row r="13" spans="2:11" ht="21" customHeight="1" thickBot="1">
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="64" t="s">
         <v>307</v>
       </c>
       <c r="C13" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="65">
         <f>AVERAGE('ISO 27001 Audit Checklist'!H117:H119,'ISO 27001 Audit Checklist'!H121:H129,'ISO 27001 Audit Checklist'!H131)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="108" t="s">
+      <c r="I13" s="80" t="s">
         <v>629</v>
       </c>
-      <c r="J13" s="109"/>
-      <c r="K13" s="110">
+      <c r="J13" s="81"/>
+      <c r="K13" s="69">
         <f>AVERAGE(K4:K11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="21" customHeight="1">
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="64" t="s">
         <v>354</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>355</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="65">
         <f>AVERAGE('ISO 27001 Audit Checklist'!H134:H136,'ISO 27001 Audit Checklist'!H138:H139)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="21" customHeight="1">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="64" t="s">
         <v>375</v>
       </c>
       <c r="C15" s="56" t="s">
         <v>376</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="65">
         <f>AVERAGE('ISO 27001 Audit Checklist'!H142:H148)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="21" customHeight="1">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="64" t="s">
         <v>400</v>
       </c>
       <c r="C16" s="56" t="s">
         <v>401</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="65">
         <f>AVERAGE('ISO 27001 Audit Checklist'!H151:H153,'ISO 27001 Audit Checklist'!H155)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="21" customHeight="1">
-      <c r="B17" s="103" t="s">
+    <row r="17" spans="2:11" ht="21" customHeight="1">
+      <c r="B17" s="64" t="s">
         <v>418</v>
       </c>
       <c r="C17" s="56" t="s">
         <v>419</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="65">
         <f>AVERAGE('ISO 27001 Audit Checklist'!H158:H162,'ISO 27001 Audit Checklist'!H164:H166)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="106"/>
+    <row r="18" spans="2:11">
+      <c r="B18" s="67"/>
       <c r="C18" s="60"/>
-      <c r="D18" s="107"/>
+      <c r="D18" s="68"/>
       <c r="I18" s="57"/>
       <c r="J18" s="58"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B19" s="108" t="s">
+    <row r="19" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B19" s="80" t="s">
         <v>629</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110">
+      <c r="C19" s="81"/>
+      <c r="D19" s="69">
         <f>AVERAGE(D4:D17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:11" ht="15.75" thickBot="1">
       <c r="D21" s="59"/>
     </row>
+    <row r="22" spans="2:11" ht="24" customHeight="1">
+      <c r="B22" s="85" t="s">
+        <v>637</v>
+      </c>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
+      <c r="I22" s="125" t="s">
+        <v>644</v>
+      </c>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+    </row>
+    <row r="23" spans="2:11" ht="24" customHeight="1">
+      <c r="B23" s="74" t="s">
+        <v>638</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="I23" s="126" t="s">
+        <v>646</v>
+      </c>
+      <c r="J23" s="126"/>
+      <c r="K23" s="127" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="51.75" customHeight="1">
+      <c r="B24" s="74" t="s">
+        <v>639</v>
+      </c>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="61"/>
+    </row>
+    <row r="25" spans="2:11" ht="42" customHeight="1">
+      <c r="B25" s="74" t="s">
+        <v>640</v>
+      </c>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="61"/>
+    </row>
+    <row r="26" spans="2:11" ht="48" customHeight="1">
+      <c r="B26" s="74" t="s">
+        <v>641</v>
+      </c>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="61"/>
+    </row>
+    <row r="27" spans="2:11" ht="48.75" customHeight="1">
+      <c r="B27" s="74" t="s">
+        <v>642</v>
+      </c>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="61"/>
+    </row>
+    <row r="28" spans="2:11" ht="51.75" customHeight="1" thickBot="1">
+      <c r="B28" s="77" t="s">
+        <v>643</v>
+      </c>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="61"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="18">
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <conditionalFormatting sqref="K13 D19 K4:K11 D4:D17">
-    <cfRule type="cellIs" dxfId="44" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>0.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="5" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4675,8 +4403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H167"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4693,19 +4421,19 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:8" ht="16.5" thickTop="1">
-      <c r="B2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78" t="s">
+      <c r="B2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78" t="s">
+      <c r="E2" s="104"/>
+      <c r="F2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="2:8" ht="15.75">
       <c r="B3" s="2" t="s">
@@ -4735,26 +4463,26 @@
       <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="83"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="109"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="102"/>
     </row>
     <row r="6" spans="2:8" ht="75">
       <c r="B6" s="10"/>
@@ -4795,26 +4523,26 @@
       <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="96"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="16"/>
       <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="102"/>
     </row>
     <row r="10" spans="2:8" ht="75">
       <c r="B10" s="10"/>
@@ -4906,13 +4634,13 @@
       <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="93"/>
     </row>
     <row r="16" spans="2:8" ht="105">
       <c r="B16" s="10"/>
@@ -4953,26 +4681,26 @@
       <c r="C18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="96"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="18"/>
       <c r="C19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="93"/>
     </row>
     <row r="20" spans="2:8" ht="135">
       <c r="B20" s="10"/>
@@ -5013,13 +4741,13 @@
       <c r="C22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="67"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="93"/>
     </row>
     <row r="23" spans="2:8" ht="120">
       <c r="B23" s="10"/>
@@ -5077,13 +4805,13 @@
       <c r="C26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="67"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="93"/>
     </row>
     <row r="27" spans="2:8" ht="150">
       <c r="B27" s="10"/>
@@ -5107,26 +4835,26 @@
       <c r="C28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="96"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="18"/>
       <c r="C29" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="67"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="93"/>
     </row>
     <row r="30" spans="2:8" ht="75">
       <c r="B30" s="10"/>
@@ -5201,13 +4929,13 @@
       <c r="C34" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="67"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="93"/>
     </row>
     <row r="35" spans="2:8" ht="75">
       <c r="B35" s="10"/>
@@ -5265,13 +4993,13 @@
       <c r="C38" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="67"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="93"/>
     </row>
     <row r="39" spans="2:8" ht="105">
       <c r="B39" s="10"/>
@@ -5329,26 +5057,26 @@
       <c r="C42" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="68" t="s">
+      <c r="D42" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="70"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="96"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="18"/>
       <c r="C43" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="65" t="s">
+      <c r="D43" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="67"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="93"/>
     </row>
     <row r="44" spans="2:8" ht="90">
       <c r="B44" s="10"/>
@@ -5389,13 +5117,13 @@
       <c r="C46" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="65" t="s">
+      <c r="D46" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="67"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="93"/>
     </row>
     <row r="47" spans="2:8" ht="30">
       <c r="B47" s="10"/>
@@ -5504,13 +5232,13 @@
       <c r="C53" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D53" s="65" t="s">
+      <c r="D53" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="67"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="93"/>
     </row>
     <row r="54" spans="2:8" ht="75">
       <c r="B54" s="10"/>
@@ -5534,13 +5262,13 @@
       <c r="C55" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D55" s="65" t="s">
+      <c r="D55" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="67"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="93"/>
     </row>
     <row r="56" spans="2:8" ht="45">
       <c r="B56" s="10"/>
@@ -5632,26 +5360,26 @@
       <c r="C61" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="68" t="s">
+      <c r="D61" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="70"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="96"/>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="18"/>
       <c r="C62" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D62" s="65" t="s">
+      <c r="D62" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="67"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="92"/>
+      <c r="H62" s="93"/>
     </row>
     <row r="63" spans="2:8" ht="30">
       <c r="B63" s="10"/>
@@ -5692,26 +5420,26 @@
       <c r="C65" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D65" s="68" t="s">
+      <c r="D65" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="70"/>
+      <c r="E65" s="94"/>
+      <c r="F65" s="94"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="96"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="18"/>
       <c r="C66" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D66" s="65" t="s">
+      <c r="D66" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="67"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="93"/>
     </row>
     <row r="67" spans="2:8" ht="75">
       <c r="B67" s="10"/>
@@ -5820,13 +5548,13 @@
       <c r="C73" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D73" s="65" t="s">
+      <c r="D73" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="67"/>
+      <c r="E73" s="91"/>
+      <c r="F73" s="91"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="93"/>
     </row>
     <row r="74" spans="2:8" ht="90">
       <c r="B74" s="10"/>
@@ -5986,26 +5714,26 @@
       <c r="C83" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D83" s="68" t="s">
+      <c r="D83" s="94" t="s">
         <v>223</v>
       </c>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="70"/>
+      <c r="E83" s="94"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="95"/>
+      <c r="H83" s="96"/>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="18"/>
       <c r="C84" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D84" s="65" t="s">
+      <c r="D84" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="67"/>
+      <c r="E84" s="91"/>
+      <c r="F84" s="91"/>
+      <c r="G84" s="92"/>
+      <c r="H84" s="93"/>
     </row>
     <row r="85" spans="2:8" ht="60">
       <c r="B85" s="10"/>
@@ -6080,13 +5808,13 @@
       <c r="C89" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D89" s="65" t="s">
+      <c r="D89" s="91" t="s">
         <v>239</v>
       </c>
-      <c r="E89" s="65"/>
-      <c r="F89" s="65"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="67"/>
+      <c r="E89" s="91"/>
+      <c r="F89" s="91"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="93"/>
     </row>
     <row r="90" spans="2:8" ht="105">
       <c r="B90" s="19"/>
@@ -6110,13 +5838,13 @@
       <c r="C91" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D91" s="65" t="s">
+      <c r="D91" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="E91" s="65"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="67"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="92"/>
+      <c r="H91" s="93"/>
     </row>
     <row r="92" spans="2:8" ht="90">
       <c r="B92" s="10"/>
@@ -6140,13 +5868,13 @@
       <c r="C93" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D93" s="65" t="s">
+      <c r="D93" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="E93" s="65"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="67"/>
+      <c r="E93" s="91"/>
+      <c r="F93" s="91"/>
+      <c r="G93" s="92"/>
+      <c r="H93" s="93"/>
     </row>
     <row r="94" spans="2:8" ht="30">
       <c r="B94" s="10"/>
@@ -6221,13 +5949,13 @@
       <c r="C98" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D98" s="65" t="s">
+      <c r="D98" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="67"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
+      <c r="G98" s="92"/>
+      <c r="H98" s="93"/>
     </row>
     <row r="99" spans="2:8" ht="45">
       <c r="B99" s="10"/>
@@ -6251,13 +5979,13 @@
       <c r="C100" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="D100" s="65" t="s">
+      <c r="D100" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="66"/>
-      <c r="H100" s="67"/>
+      <c r="E100" s="91"/>
+      <c r="F100" s="91"/>
+      <c r="G100" s="92"/>
+      <c r="H100" s="93"/>
     </row>
     <row r="101" spans="2:8" ht="90">
       <c r="B101" s="10"/>
@@ -6298,13 +6026,13 @@
       <c r="C103" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D103" s="65" t="s">
+      <c r="D103" s="91" t="s">
         <v>276</v>
       </c>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="67"/>
+      <c r="E103" s="91"/>
+      <c r="F103" s="91"/>
+      <c r="G103" s="92"/>
+      <c r="H103" s="93"/>
     </row>
     <row r="104" spans="2:8" ht="45">
       <c r="B104" s="10"/>
@@ -6328,26 +6056,26 @@
       <c r="C105" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D105" s="68" t="s">
+      <c r="D105" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="E105" s="68"/>
-      <c r="F105" s="68"/>
-      <c r="G105" s="69"/>
-      <c r="H105" s="70"/>
+      <c r="E105" s="94"/>
+      <c r="F105" s="94"/>
+      <c r="G105" s="95"/>
+      <c r="H105" s="96"/>
     </row>
     <row r="106" spans="2:8">
       <c r="B106" s="18"/>
       <c r="C106" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D106" s="65" t="s">
+      <c r="D106" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="66"/>
-      <c r="H106" s="67"/>
+      <c r="E106" s="91"/>
+      <c r="F106" s="91"/>
+      <c r="G106" s="92"/>
+      <c r="H106" s="93"/>
     </row>
     <row r="107" spans="2:8" ht="30">
       <c r="B107" s="10"/>
@@ -6405,13 +6133,13 @@
       <c r="C110" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="D110" s="65" t="s">
+      <c r="D110" s="91" t="s">
         <v>294</v>
       </c>
-      <c r="E110" s="65"/>
-      <c r="F110" s="65"/>
-      <c r="G110" s="66"/>
-      <c r="H110" s="67"/>
+      <c r="E110" s="91"/>
+      <c r="F110" s="91"/>
+      <c r="G110" s="92"/>
+      <c r="H110" s="93"/>
     </row>
     <row r="111" spans="2:8" ht="120">
       <c r="B111" s="10"/>
@@ -6486,26 +6214,26 @@
       <c r="C115" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D115" s="68" t="s">
+      <c r="D115" s="94" t="s">
         <v>308</v>
       </c>
-      <c r="E115" s="68"/>
-      <c r="F115" s="68"/>
-      <c r="G115" s="69"/>
-      <c r="H115" s="70"/>
+      <c r="E115" s="94"/>
+      <c r="F115" s="94"/>
+      <c r="G115" s="95"/>
+      <c r="H115" s="96"/>
     </row>
     <row r="116" spans="2:8">
       <c r="B116" s="18"/>
       <c r="C116" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="D116" s="65" t="s">
+      <c r="D116" s="91" t="s">
         <v>310</v>
       </c>
-      <c r="E116" s="65"/>
-      <c r="F116" s="65"/>
-      <c r="G116" s="66"/>
-      <c r="H116" s="67"/>
+      <c r="E116" s="91"/>
+      <c r="F116" s="91"/>
+      <c r="G116" s="92"/>
+      <c r="H116" s="93"/>
     </row>
     <row r="117" spans="2:8" ht="90">
       <c r="B117" s="10"/>
@@ -6563,13 +6291,13 @@
       <c r="C120" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="D120" s="65" t="s">
+      <c r="D120" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="E120" s="65"/>
-      <c r="F120" s="65"/>
-      <c r="G120" s="66"/>
-      <c r="H120" s="67"/>
+      <c r="E120" s="91"/>
+      <c r="F120" s="91"/>
+      <c r="G120" s="92"/>
+      <c r="H120" s="93"/>
     </row>
     <row r="121" spans="2:8" ht="75">
       <c r="B121" s="10"/>
@@ -6729,13 +6457,13 @@
       <c r="C130" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="D130" s="65" t="s">
+      <c r="D130" s="91" t="s">
         <v>350</v>
       </c>
-      <c r="E130" s="65"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="66"/>
-      <c r="H130" s="67"/>
+      <c r="E130" s="91"/>
+      <c r="F130" s="91"/>
+      <c r="G130" s="92"/>
+      <c r="H130" s="93"/>
     </row>
     <row r="131" spans="2:8" ht="45">
       <c r="B131" s="10"/>
@@ -6759,26 +6487,26 @@
       <c r="C132" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="D132" s="71" t="s">
+      <c r="D132" s="97" t="s">
         <v>355</v>
       </c>
-      <c r="E132" s="71"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="72"/>
-      <c r="H132" s="73"/>
+      <c r="E132" s="97"/>
+      <c r="F132" s="97"/>
+      <c r="G132" s="98"/>
+      <c r="H132" s="99"/>
     </row>
     <row r="133" spans="2:8">
       <c r="B133" s="18"/>
       <c r="C133" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="D133" s="65" t="s">
+      <c r="D133" s="91" t="s">
         <v>357</v>
       </c>
-      <c r="E133" s="65"/>
-      <c r="F133" s="65"/>
-      <c r="G133" s="66"/>
-      <c r="H133" s="67"/>
+      <c r="E133" s="91"/>
+      <c r="F133" s="91"/>
+      <c r="G133" s="92"/>
+      <c r="H133" s="93"/>
     </row>
     <row r="134" spans="2:8" ht="90">
       <c r="B134" s="10"/>
@@ -6836,13 +6564,13 @@
       <c r="C137" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D137" s="65" t="s">
+      <c r="D137" s="91" t="s">
         <v>368</v>
       </c>
-      <c r="E137" s="65"/>
-      <c r="F137" s="65"/>
-      <c r="G137" s="66"/>
-      <c r="H137" s="67"/>
+      <c r="E137" s="91"/>
+      <c r="F137" s="91"/>
+      <c r="G137" s="92"/>
+      <c r="H137" s="93"/>
     </row>
     <row r="138" spans="2:8" ht="30">
       <c r="B138" s="10"/>
@@ -6883,26 +6611,26 @@
       <c r="C140" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="D140" s="68" t="s">
+      <c r="D140" s="94" t="s">
         <v>376</v>
       </c>
-      <c r="E140" s="68"/>
-      <c r="F140" s="68"/>
-      <c r="G140" s="69"/>
-      <c r="H140" s="70"/>
+      <c r="E140" s="94"/>
+      <c r="F140" s="94"/>
+      <c r="G140" s="95"/>
+      <c r="H140" s="96"/>
     </row>
     <row r="141" spans="2:8">
       <c r="B141" s="18"/>
       <c r="C141" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="D141" s="65" t="s">
+      <c r="D141" s="91" t="s">
         <v>378</v>
       </c>
-      <c r="E141" s="65"/>
-      <c r="F141" s="65"/>
-      <c r="G141" s="66"/>
-      <c r="H141" s="67"/>
+      <c r="E141" s="91"/>
+      <c r="F141" s="91"/>
+      <c r="G141" s="92"/>
+      <c r="H141" s="93"/>
     </row>
     <row r="142" spans="2:8" ht="45">
       <c r="B142" s="10"/>
@@ -7028,26 +6756,26 @@
       <c r="C149" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="D149" s="68" t="s">
+      <c r="D149" s="94" t="s">
         <v>401</v>
       </c>
-      <c r="E149" s="68"/>
-      <c r="F149" s="68"/>
-      <c r="G149" s="69"/>
-      <c r="H149" s="70"/>
+      <c r="E149" s="94"/>
+      <c r="F149" s="94"/>
+      <c r="G149" s="95"/>
+      <c r="H149" s="96"/>
     </row>
     <row r="150" spans="2:8">
       <c r="B150" s="18"/>
       <c r="C150" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="D150" s="65" t="s">
+      <c r="D150" s="91" t="s">
         <v>403</v>
       </c>
-      <c r="E150" s="65"/>
-      <c r="F150" s="65"/>
-      <c r="G150" s="66"/>
-      <c r="H150" s="67"/>
+      <c r="E150" s="91"/>
+      <c r="F150" s="91"/>
+      <c r="G150" s="92"/>
+      <c r="H150" s="93"/>
     </row>
     <row r="151" spans="2:8" ht="30">
       <c r="B151" s="10"/>
@@ -7105,13 +6833,13 @@
       <c r="C154" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D154" s="65" t="s">
+      <c r="D154" s="91" t="s">
         <v>414</v>
       </c>
-      <c r="E154" s="65"/>
-      <c r="F154" s="65"/>
-      <c r="G154" s="66"/>
-      <c r="H154" s="67"/>
+      <c r="E154" s="91"/>
+      <c r="F154" s="91"/>
+      <c r="G154" s="92"/>
+      <c r="H154" s="93"/>
     </row>
     <row r="155" spans="2:8" ht="45">
       <c r="B155" s="10"/>
@@ -7135,26 +6863,26 @@
       <c r="C156" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D156" s="68" t="s">
+      <c r="D156" s="94" t="s">
         <v>419</v>
       </c>
-      <c r="E156" s="68"/>
-      <c r="F156" s="68"/>
-      <c r="G156" s="69"/>
-      <c r="H156" s="70"/>
+      <c r="E156" s="94"/>
+      <c r="F156" s="94"/>
+      <c r="G156" s="95"/>
+      <c r="H156" s="96"/>
     </row>
     <row r="157" spans="2:8">
       <c r="B157" s="18"/>
       <c r="C157" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="D157" s="65" t="s">
+      <c r="D157" s="91" t="s">
         <v>421</v>
       </c>
-      <c r="E157" s="65"/>
-      <c r="F157" s="65"/>
-      <c r="G157" s="66"/>
-      <c r="H157" s="67"/>
+      <c r="E157" s="91"/>
+      <c r="F157" s="91"/>
+      <c r="G157" s="92"/>
+      <c r="H157" s="93"/>
     </row>
     <row r="158" spans="2:8" ht="75">
       <c r="B158" s="10"/>
@@ -7246,13 +6974,13 @@
       <c r="C163" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="D163" s="65" t="s">
+      <c r="D163" s="91" t="s">
         <v>438</v>
       </c>
-      <c r="E163" s="65"/>
-      <c r="F163" s="65"/>
-      <c r="G163" s="66"/>
-      <c r="H163" s="67"/>
+      <c r="E163" s="91"/>
+      <c r="F163" s="91"/>
+      <c r="G163" s="92"/>
+      <c r="H163" s="93"/>
     </row>
     <row r="164" spans="2:8" ht="90">
       <c r="B164" s="10"/>
@@ -7362,14 +7090,14 @@
     <mergeCell ref="D150:H150"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:H7 H10:H14 H16:H17 H20:H21 H23:H25 H27 H30:H33 H35:H37 H39:H41 H44:H45 H47:H52 H54 H56:H60 H63:H64 H67:H72 H74:H82 H85:H88 H90 H92 H94:H97 H99 H101:H102 H104 H107:H109 H111:H114 H117:H119 H121:H129 H131 H134:H136 H138:H139 H142:H148 H151:H153 H155 H158:H162 H164:H166">
-    <cfRule type="cellIs" dxfId="68" priority="1" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="between">
       <formula>0.251</formula>
       <formula>0.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7408,19 +7136,19 @@
   <sheetData>
     <row r="1" spans="2:8" ht="12" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:8" ht="15.75">
-      <c r="B2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94" t="s">
+      <c r="B2" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94" t="s">
+      <c r="E2" s="120"/>
+      <c r="F2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="2:8" ht="15.75">
       <c r="B3" s="47" t="s">
@@ -7446,22 +7174,22 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="36" customHeight="1">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="113" t="s">
         <v>450</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="94" t="s">
         <v>507</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="97"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="123"/>
     </row>
     <row r="5" spans="2:8" ht="30">
-      <c r="B5" s="88"/>
+      <c r="B5" s="114"/>
       <c r="C5" s="11" t="s">
         <v>57</v>
       </c>
@@ -7478,7 +7206,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="45">
-      <c r="B6" s="88"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="11" t="s">
         <v>60</v>
       </c>
@@ -7495,7 +7223,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="60">
-      <c r="B7" s="88"/>
+      <c r="B7" s="114"/>
       <c r="C7" s="11" t="s">
         <v>63</v>
       </c>
@@ -7512,7 +7240,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="30">
-      <c r="B8" s="88"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="11" t="s">
         <v>452</v>
       </c>
@@ -7529,7 +7257,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="75">
-      <c r="B9" s="88"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="11" t="s">
         <v>453</v>
       </c>
@@ -7546,7 +7274,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="75">
-      <c r="B10" s="88"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="11" t="s">
         <v>454</v>
       </c>
@@ -7563,7 +7291,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="60">
-      <c r="B11" s="88"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="11" t="s">
         <v>455</v>
       </c>
@@ -7580,7 +7308,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="45">
-      <c r="B12" s="88"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="11" t="s">
         <v>456</v>
       </c>
@@ -7597,20 +7325,20 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B13" s="88"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="94" t="s">
         <v>508</v>
       </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="86"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="112"/>
     </row>
     <row r="14" spans="2:8" ht="60">
-      <c r="B14" s="88"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="11" t="s">
         <v>68</v>
       </c>
@@ -7627,7 +7355,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="60">
-      <c r="B15" s="88"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="11" t="s">
         <v>495</v>
       </c>
@@ -7644,7 +7372,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="60">
-      <c r="B16" s="88"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="11" t="s">
         <v>496</v>
       </c>
@@ -7661,7 +7389,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="45">
-      <c r="B17" s="88"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="11" t="s">
         <v>497</v>
       </c>
@@ -7678,7 +7406,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="30">
-      <c r="B18" s="88"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="11" t="s">
         <v>498</v>
       </c>
@@ -7695,7 +7423,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="60">
-      <c r="B19" s="88"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="11" t="s">
         <v>499</v>
       </c>
@@ -7712,7 +7440,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="90">
-      <c r="B20" s="88"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="11" t="s">
         <v>500</v>
       </c>
@@ -7729,7 +7457,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="45">
-      <c r="B21" s="88"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="11" t="s">
         <v>501</v>
       </c>
@@ -7746,7 +7474,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="45">
-      <c r="B22" s="88"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="11" t="s">
         <v>502</v>
       </c>
@@ -7763,7 +7491,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="75">
-      <c r="B23" s="88"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="11" t="s">
         <v>503</v>
       </c>
@@ -7780,20 +7508,20 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B24" s="88"/>
+      <c r="B24" s="114"/>
       <c r="C24" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="97" t="s">
         <v>509</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="86"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="112"/>
     </row>
     <row r="25" spans="2:8" ht="45">
-      <c r="B25" s="88"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="11" t="s">
         <v>510</v>
       </c>
@@ -7810,7 +7538,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="60">
-      <c r="B26" s="88"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="11" t="s">
         <v>511</v>
       </c>
@@ -7827,7 +7555,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="60">
-      <c r="B27" s="88"/>
+      <c r="B27" s="114"/>
       <c r="C27" s="11" t="s">
         <v>512</v>
       </c>
@@ -7844,7 +7572,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="60">
-      <c r="B28" s="88"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="11" t="s">
         <v>513</v>
       </c>
@@ -7861,7 +7589,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" ht="45">
-      <c r="B29" s="88"/>
+      <c r="B29" s="114"/>
       <c r="C29" s="11" t="s">
         <v>514</v>
       </c>
@@ -7878,7 +7606,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="75">
-      <c r="B30" s="88"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="11" t="s">
         <v>515</v>
       </c>
@@ -7895,7 +7623,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="45">
-      <c r="B31" s="88"/>
+      <c r="B31" s="114"/>
       <c r="C31" s="11" t="s">
         <v>516</v>
       </c>
@@ -7912,7 +7640,7 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="45">
-      <c r="B32" s="88"/>
+      <c r="B32" s="114"/>
       <c r="C32" s="11" t="s">
         <v>517</v>
       </c>
@@ -7929,7 +7657,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="75">
-      <c r="B33" s="88"/>
+      <c r="B33" s="114"/>
       <c r="C33" s="11" t="s">
         <v>518</v>
       </c>
@@ -7946,20 +7674,20 @@
       </c>
     </row>
     <row r="34" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B34" s="88"/>
+      <c r="B34" s="114"/>
       <c r="C34" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="D34" s="97" t="s">
         <v>520</v>
       </c>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="86"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="112"/>
     </row>
     <row r="35" spans="2:8" ht="30">
-      <c r="B35" s="88"/>
+      <c r="B35" s="114"/>
       <c r="C35" s="11" t="s">
         <v>521</v>
       </c>
@@ -7976,7 +7704,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" ht="60">
-      <c r="B36" s="88"/>
+      <c r="B36" s="114"/>
       <c r="C36" s="11" t="s">
         <v>522</v>
       </c>
@@ -7993,7 +7721,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" ht="60">
-      <c r="B37" s="88"/>
+      <c r="B37" s="114"/>
       <c r="C37" s="11" t="s">
         <v>523</v>
       </c>
@@ -8010,7 +7738,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" ht="45">
-      <c r="B38" s="88"/>
+      <c r="B38" s="114"/>
       <c r="C38" s="11" t="s">
         <v>524</v>
       </c>
@@ -8027,22 +7755,22 @@
       </c>
     </row>
     <row r="39" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="110" t="s">
         <v>590</v>
       </c>
       <c r="C39" s="46" t="s">
         <v>525</v>
       </c>
-      <c r="D39" s="89" t="s">
+      <c r="D39" s="115" t="s">
         <v>591</v>
       </c>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="92"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="118"/>
     </row>
     <row r="40" spans="2:8" ht="90">
-      <c r="B40" s="84"/>
+      <c r="B40" s="110"/>
       <c r="C40" s="11" t="s">
         <v>569</v>
       </c>
@@ -8059,7 +7787,7 @@
       </c>
     </row>
     <row r="41" spans="2:8" ht="60">
-      <c r="B41" s="84"/>
+      <c r="B41" s="110"/>
       <c r="C41" s="11" t="s">
         <v>570</v>
       </c>
@@ -8076,7 +7804,7 @@
       </c>
     </row>
     <row r="42" spans="2:8" ht="120">
-      <c r="B42" s="84"/>
+      <c r="B42" s="110"/>
       <c r="C42" s="11" t="s">
         <v>571</v>
       </c>
@@ -8093,7 +7821,7 @@
       </c>
     </row>
     <row r="43" spans="2:8" ht="75">
-      <c r="B43" s="84"/>
+      <c r="B43" s="110"/>
       <c r="C43" s="11" t="s">
         <v>572</v>
       </c>
@@ -8110,7 +7838,7 @@
       </c>
     </row>
     <row r="44" spans="2:8" ht="45">
-      <c r="B44" s="84"/>
+      <c r="B44" s="110"/>
       <c r="C44" s="11" t="s">
         <v>573</v>
       </c>
@@ -8127,7 +7855,7 @@
       </c>
     </row>
     <row r="45" spans="2:8" ht="75">
-      <c r="B45" s="84"/>
+      <c r="B45" s="110"/>
       <c r="C45" s="11" t="s">
         <v>574</v>
       </c>
@@ -8144,20 +7872,20 @@
       </c>
     </row>
     <row r="46" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B46" s="84"/>
+      <c r="B46" s="110"/>
       <c r="C46" s="46" t="s">
         <v>575</v>
       </c>
-      <c r="D46" s="89" t="s">
+      <c r="D46" s="115" t="s">
         <v>605</v>
       </c>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="92"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="118"/>
     </row>
     <row r="47" spans="2:8" ht="45">
-      <c r="B47" s="84"/>
+      <c r="B47" s="110"/>
       <c r="C47" s="11" t="s">
         <v>576</v>
       </c>
@@ -8174,20 +7902,20 @@
       </c>
     </row>
     <row r="48" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B48" s="84"/>
+      <c r="B48" s="110"/>
       <c r="C48" s="46" t="s">
         <v>577</v>
       </c>
-      <c r="D48" s="89" t="s">
+      <c r="D48" s="115" t="s">
         <v>606</v>
       </c>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="92"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="118"/>
     </row>
     <row r="49" spans="2:8" ht="60">
-      <c r="B49" s="84"/>
+      <c r="B49" s="110"/>
       <c r="C49" s="11" t="s">
         <v>578</v>
       </c>
@@ -8204,7 +7932,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" ht="60">
-      <c r="B50" s="84"/>
+      <c r="B50" s="110"/>
       <c r="C50" s="11" t="s">
         <v>579</v>
       </c>
@@ -8221,7 +7949,7 @@
       </c>
     </row>
     <row r="51" spans="2:8" ht="75">
-      <c r="B51" s="84"/>
+      <c r="B51" s="110"/>
       <c r="C51" s="11" t="s">
         <v>580</v>
       </c>
@@ -8238,20 +7966,20 @@
       </c>
     </row>
     <row r="52" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B52" s="84"/>
+      <c r="B52" s="110"/>
       <c r="C52" s="46" t="s">
         <v>581</v>
       </c>
-      <c r="D52" s="89" t="s">
+      <c r="D52" s="115" t="s">
         <v>611</v>
       </c>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="91"/>
-      <c r="H52" s="92"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="118"/>
     </row>
     <row r="53" spans="2:8" ht="75">
-      <c r="B53" s="84"/>
+      <c r="B53" s="110"/>
       <c r="C53" s="11" t="s">
         <v>582</v>
       </c>
@@ -8268,7 +7996,7 @@
       </c>
     </row>
     <row r="54" spans="2:8" ht="60">
-      <c r="B54" s="84"/>
+      <c r="B54" s="110"/>
       <c r="C54" s="11" t="s">
         <v>583</v>
       </c>
@@ -8285,7 +8013,7 @@
       </c>
     </row>
     <row r="55" spans="2:8" ht="45">
-      <c r="B55" s="84"/>
+      <c r="B55" s="110"/>
       <c r="C55" s="11" t="s">
         <v>584</v>
       </c>
@@ -8302,7 +8030,7 @@
       </c>
     </row>
     <row r="56" spans="2:8" ht="45">
-      <c r="B56" s="84"/>
+      <c r="B56" s="110"/>
       <c r="C56" s="11" t="s">
         <v>585</v>
       </c>
@@ -8319,7 +8047,7 @@
       </c>
     </row>
     <row r="57" spans="2:8" ht="105">
-      <c r="B57" s="84"/>
+      <c r="B57" s="110"/>
       <c r="C57" s="11" t="s">
         <v>586</v>
       </c>
@@ -8336,7 +8064,7 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="45">
-      <c r="B58" s="84"/>
+      <c r="B58" s="110"/>
       <c r="C58" s="11" t="s">
         <v>587</v>
       </c>
@@ -8353,7 +8081,7 @@
       </c>
     </row>
     <row r="59" spans="2:8" ht="30">
-      <c r="B59" s="84"/>
+      <c r="B59" s="110"/>
       <c r="C59" s="11" t="s">
         <v>588</v>
       </c>
@@ -8370,7 +8098,7 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="75.75" thickBot="1">
-      <c r="B60" s="85"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="49" t="s">
         <v>589</v>
       </c>
@@ -8403,17 +8131,17 @@
     <mergeCell ref="D34:H34"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:H12 H14:H23 H25:H32 H33 H35:H38 H40:H44 H45 H47 H49:H51 H53:H60">
-    <cfRule type="cellIs" dxfId="63" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H12 H14:H23 H25:H33 H35:H38 H40:H45 H47 H49:H51 H53:H60">
-    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H12 H14:H23 H25:H33 H35:H38 H40:H45 H47 H49:H51 H53:H60">
-    <cfRule type="cellIs" dxfId="64" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="between">
       <formula>0.251</formula>
       <formula>0.75</formula>
     </cfRule>
